--- a/config_6.1/sys_txz_config.xlsx
+++ b/config_6.1/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -106,12 +106,18 @@
     <t>addvalue</t>
   </si>
   <si>
+    <t>gotoUI</t>
+  </si>
+  <si>
     <t>task_name</t>
   </si>
   <si>
     <t>登录游戏1次</t>
   </si>
   <si>
+    <t>"game_Fishing3DHall",</t>
+  </si>
+  <si>
     <t>消耗30万金币</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
   </si>
   <si>
     <t>在3D捕鱼海底宝藏中累计开炮500次</t>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
   </si>
   <si>
     <t>在西游消消乐中累计消除15次</t>
@@ -176,7 +185,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -205,14 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +228,83 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,23 +319,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,30 +335,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +350,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,21 +362,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -369,6 +384,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,139 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,15 +575,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,30 +589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,11 +610,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +664,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +683,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,7 +695,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,128 +704,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,10 +838,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1196,7 +1217,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1207,7 +1228,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>10563</v>
       </c>
       <c r="C2">
@@ -1226,7 +1247,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1367,20 +1388,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="39.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="39.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1393,11 +1415,14 @@
       <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1410,11 +1435,11 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1427,11 +1452,11 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1445,10 +1470,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1464,8 +1492,11 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1479,10 +1510,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1495,11 +1529,14 @@
       <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1512,11 +1549,14 @@
       <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1529,11 +1569,11 @@
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1546,11 +1586,11 @@
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1563,11 +1603,11 @@
       <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1581,10 +1621,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1597,11 +1640,11 @@
       <c r="D13">
         <v>200</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1615,10 +1658,13 @@
         <v>200</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1631,11 +1677,14 @@
       <c r="D15">
         <v>200</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1648,8 +1697,11 @@
       <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>43</v>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1693,7 +1745,7 @@
         <v>30001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1704,7 +1756,7 @@
         <v>30002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1715,7 +1767,7 @@
         <v>30003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.1/sys_txz_config.xlsx
+++ b/config_6.1/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,16 @@
     <t>在水浒消消乐中累计消除15次</t>
   </si>
   <si>
+    <t>"shop_bay","jing_bi",</t>
+  </si>
+  <si>
     <t>任意充值1笔</t>
   </si>
   <si>
     <t>累计登陆3天</t>
+  </si>
+  <si>
+    <t>"sys_flqcj","panel",1</t>
   </si>
   <si>
     <t>使用1次红包大转盘</t>
@@ -180,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -220,14 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +241,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,16 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,29 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -303,6 +324,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -310,11 +347,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,37 +363,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,67 +390,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,115 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +599,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -612,7 +633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +642,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -649,32 +681,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -683,10 +689,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,91 +701,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,44 +812,26 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +852,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1217,7 +1226,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1228,7 +1237,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>10563</v>
       </c>
       <c r="C2">
@@ -1391,7 +1400,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1556,7 +1565,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" ht="15.75" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1569,8 +1578,11 @@
       <c r="D9">
         <v>30</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1587,10 +1599,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1603,8 +1615,11 @@
       <c r="D11">
         <v>200</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
@@ -1624,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1641,7 +1656,7 @@
         <v>200</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:6">
@@ -1661,7 +1676,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:6">
@@ -1681,7 +1696,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:6">
@@ -1700,8 +1715,8 @@
       <c r="E16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>46</v>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1745,7 +1760,7 @@
         <v>30001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1756,7 +1771,7 @@
         <v>30002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1767,7 +1782,7 @@
         <v>30003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.1/sys_txz_config.xlsx
+++ b/config_6.1/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,10 @@
     <t>"双倍奖励*5","炮台加成2%","炮台加成8%"</t>
   </si>
   <si>
-    <t>"ty_icon_yb_3","ty_icon_jb_15y","ty_icon_jb_30y"</t>
-  </si>
-  <si>
-    <t>"1000鱼币","20万金币","80万金币"</t>
+    <t>"ty_icon_jb_6y","ty_icon_jb_15y","ty_icon_jb_30y"</t>
+  </si>
+  <si>
+    <t>"1000金币","20万金币","80万金币"</t>
   </si>
   <si>
     <t>line</t>
@@ -186,9 +186,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -226,7 +226,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +292,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -276,9 +331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,11 +347,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,30 +358,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,36 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -390,13 +390,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,169 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,17 +599,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,31 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,8 +656,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,149 +689,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,9 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1226,7 +1223,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1237,7 +1234,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>10563</v>
       </c>
       <c r="C2">
@@ -1256,8 +1253,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1399,8 +1396,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1578,7 +1575,7 @@
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1615,7 +1612,7 @@
       <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1715,7 +1712,7 @@
       <c r="E16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>48</v>
       </c>
     </row>
